--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,12 +29,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-4, Table 6-3</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -53,12 +47,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -104,10 +92,22 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -489,57 +491,57 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -565,139 +569,139 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-862631</v>
+        <v>-791695</v>
       </c>
       <c r="C4">
-        <v>-862025</v>
+        <v>-855998</v>
       </c>
       <c r="D4">
-        <v>-872103</v>
+        <v>-792046</v>
       </c>
       <c r="E4">
-        <v>-869580</v>
+        <v>-824885</v>
       </c>
       <c r="F4">
-        <v>-871026</v>
+        <v>-812695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>234</v>
+        <v>663</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E5">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-2.7126314727850032E-4</v>
+        <v>-8.3744371254081433E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-2.2041124097328964E-4</v>
+        <v>-3.5981392479888971E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6964567258683894E-4</v>
+        <v>-7.7520750057446164E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-7.2103774235837996E-4</v>
+        <v>-6.6918418931123734E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.6750062569888842E-4</v>
+        <v>-6.7922160220008736E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.5503372821055586E-5</v>
+        <v>-4.7998282166743506E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.3201183260346277E-5</v>
+        <v>-2.1028086514220829E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.8159449055902798E-5</v>
+        <v>-4.5451905571141073E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1749120264955494E-5</v>
+        <v>-3.8793286336883321E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6405641163409588E-5</v>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +717,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -723,12 +727,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -736,7 +740,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -744,7 +748,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -752,7 +756,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -760,7 +764,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -768,7 +772,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -776,7 +780,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -784,7 +788,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -792,7 +796,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -800,25 +804,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>4.2997168577917945E-4</v>
+        <v>6.6417418588509813E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.5003753313133949E-5</v>
+        <v>3.8529345186784264E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
